--- a/data/trans_orig/P6514-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E39AAEBF-8737-4882-AC38-127C3F3B4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFE6A87-2A12-481C-A3E8-C7D3FE8C0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{500A92E7-BE45-4304-B282-546035575478}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C02ABDA6-1F88-45A1-B94D-77CFBA90DB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,9%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>33,49%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>29,37%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>17,25%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>6,86%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,19%</t>
+    <t>21,16%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,532 +197,535 @@
     <t>27,04%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,38%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>12,13%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1137,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA89C8C6-9910-44A3-9DC4-2AC0E29B1E77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C2DDAE-D2DF-4FA6-B633-77CFAD350BA2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1808,10 +1811,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1829,13 @@
         <v>168290</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
@@ -1841,13 +1844,13 @@
         <v>105108</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>258</v>
@@ -1856,13 +1859,13 @@
         <v>273398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1880,13 @@
         <v>138038</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -1892,13 +1895,13 @@
         <v>34067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -1907,13 +1910,13 @@
         <v>172105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1931,13 @@
         <v>73681</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1943,13 +1946,13 @@
         <v>18080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -1958,13 +1961,13 @@
         <v>91760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2023,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2032,7 +2035,7 @@
         <v>120992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>126</v>
@@ -2134,13 +2137,13 @@
         <v>90855</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -2149,13 +2152,13 @@
         <v>50697</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>136</v>
@@ -2164,13 +2167,13 @@
         <v>141552</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2188,13 @@
         <v>45197</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2200,13 +2203,13 @@
         <v>12636</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -2215,13 +2218,13 @@
         <v>57833</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2280,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2289,13 +2292,13 @@
         <v>159903</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>142</v>
@@ -2304,13 +2307,13 @@
         <v>151620</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>311</v>
@@ -2319,13 +2322,13 @@
         <v>311523</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2343,13 @@
         <v>186927</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -2355,13 +2358,13 @@
         <v>124470</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
@@ -2370,13 +2373,13 @@
         <v>311396</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2394,13 @@
         <v>124570</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -2406,13 +2409,13 @@
         <v>78568</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -2421,13 +2424,13 @@
         <v>203138</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2445,13 @@
         <v>80144</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -2457,13 +2460,13 @@
         <v>30602</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
@@ -2472,13 +2475,13 @@
         <v>110747</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,10 +2549,10 @@
         <v>556223</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>197</v>
@@ -2582,7 +2585,7 @@
         <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2600,13 @@
         <v>644307</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>344</v>
@@ -2612,13 +2615,13 @@
         <v>358408</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>966</v>
@@ -2627,13 +2630,13 @@
         <v>1002715</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2651,13 @@
         <v>446868</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>184</v>
@@ -2663,13 +2666,13 @@
         <v>192506</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>613</v>
@@ -2678,13 +2681,13 @@
         <v>639374</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2702,13 @@
         <v>248527</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -2714,13 +2717,13 @@
         <v>70294</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M32" s="7">
         <v>302</v>
@@ -2732,10 +2735,10 @@
         <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFE6A87-2A12-481C-A3E8-C7D3FE8C0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DED2699-01CE-4BCB-8CE3-F29E7C01C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C02ABDA6-1F88-45A1-B94D-77CFBA90DB9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC9E0BEC-8DC4-4CA6-988D-A17590C495FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>19,9%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>33,49%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>29,37%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>17,25%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>6,86%</t>
@@ -176,556 +176,562 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,16%</t>
+    <t>21,27%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C2DDAE-D2DF-4FA6-B633-77CFAD350BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D75E0D-06E3-492A-82D3-115B89140F41}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1811,10 +1817,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1835,13 @@
         <v>168290</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
@@ -1844,13 +1850,13 @@
         <v>105108</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>258</v>
@@ -1859,13 +1865,13 @@
         <v>273398</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1886,13 @@
         <v>138038</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -1895,13 +1901,13 @@
         <v>34067</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -1910,13 +1916,13 @@
         <v>172105</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1937,13 @@
         <v>73681</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1946,13 +1952,13 @@
         <v>18080</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -1961,13 +1967,13 @@
         <v>91760</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2029,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2035,7 +2041,7 @@
         <v>120992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>126</v>
@@ -2137,13 +2143,13 @@
         <v>90855</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -2152,13 +2158,13 @@
         <v>50697</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>136</v>
@@ -2167,13 +2173,13 @@
         <v>141552</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2194,13 @@
         <v>45197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2203,13 +2209,13 @@
         <v>12636</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -2218,13 +2224,13 @@
         <v>57833</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2286,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2298,13 @@
         <v>159903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>142</v>
@@ -2307,13 +2313,13 @@
         <v>151620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>311</v>
@@ -2322,13 +2328,13 @@
         <v>311523</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2349,13 @@
         <v>186927</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -2358,28 +2364,28 @@
         <v>124470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
       </c>
       <c r="N25" s="7">
-        <v>311396</v>
+        <v>311397</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2400,13 @@
         <v>124570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -2409,13 +2415,13 @@
         <v>78568</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -2424,13 +2430,13 @@
         <v>203138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2451,13 @@
         <v>80144</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -2460,13 +2466,13 @@
         <v>30602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
@@ -2475,13 +2481,13 @@
         <v>110747</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2529,7 @@
         <v>933</v>
       </c>
       <c r="N28" s="7">
-        <v>936804</v>
+        <v>936805</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2549,13 +2555,13 @@
         <v>556223</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>381</v>
@@ -2564,13 +2570,13 @@
         <v>400208</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>911</v>
@@ -2579,13 +2585,13 @@
         <v>956431</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2606,13 @@
         <v>644307</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>344</v>
@@ -2615,13 +2621,13 @@
         <v>358408</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>966</v>
@@ -2630,13 +2636,13 @@
         <v>1002715</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2657,13 @@
         <v>446868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>184</v>
@@ -2666,13 +2672,13 @@
         <v>192506</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>613</v>
@@ -2681,13 +2687,13 @@
         <v>639374</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2708,13 @@
         <v>248527</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -2717,13 +2723,13 @@
         <v>70294</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>302</v>
@@ -2732,13 +2738,13 @@
         <v>318821</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2800,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DED2699-01CE-4BCB-8CE3-F29E7C01C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C9F215-9812-4249-9E92-38FACD3EFF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC9E0BEC-8DC4-4CA6-988D-A17590C495FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90C12DA3-BFA4-4C3C-B9CE-BF68D36687B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,9%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>33,49%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>29,37%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>17,25%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>6,86%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,27%</t>
+    <t>21,19%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,109 @@
     <t>27,04%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>45,91%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>39,76%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -308,88 +308,88 @@
     <t>31,63%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>41,26%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
   </si>
   <si>
     <t>34,76%</t>
   </si>
   <si>
-    <t>38,09%</t>
+    <t>38,16%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>39,26%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>24,84%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>6,75%</t>
@@ -398,16 +398,16 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,82%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -416,109 +416,109 @@
     <t>29,84%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>36,6%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
   </si>
   <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -527,211 +527,202 @@
     <t>28,99%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>33,89%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>37,7%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>36,23%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>24,55%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>31,41%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>35,91%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>34,37%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>12,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1146,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D75E0D-06E3-492A-82D3-115B89140F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEA28DD-1641-40B2-991E-80C56B59292C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2352,10 +2343,10 @@
         <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -2364,25 +2355,25 @@
         <v>124470</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
       </c>
       <c r="N25" s="7">
-        <v>311397</v>
+        <v>311396</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>178</v>
@@ -2433,10 +2424,10 @@
         <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2442,13 @@
         <v>80144</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -2466,13 +2457,13 @@
         <v>30602</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
@@ -2481,13 +2472,13 @@
         <v>110747</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,7 +2520,7 @@
         <v>933</v>
       </c>
       <c r="N28" s="7">
-        <v>936805</v>
+        <v>936804</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2555,13 +2546,13 @@
         <v>556223</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>381</v>
@@ -2570,13 +2561,13 @@
         <v>400208</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>911</v>
@@ -2585,13 +2576,13 @@
         <v>956431</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2597,13 @@
         <v>644307</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>344</v>
@@ -2621,13 +2612,13 @@
         <v>358408</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>966</v>
@@ -2636,13 +2627,13 @@
         <v>1002715</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2648,13 @@
         <v>446868</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>184</v>
@@ -2672,13 +2663,13 @@
         <v>192506</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>613</v>
@@ -2687,13 +2678,13 @@
         <v>639374</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2699,13 @@
         <v>248527</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -2723,13 +2714,13 @@
         <v>70294</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="M32" s="7">
         <v>302</v>
@@ -2738,13 +2729,13 @@
         <v>318821</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2791,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C9F215-9812-4249-9E92-38FACD3EFF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEDD0C48-7ABA-4D5C-8671-1C2EE5B5FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90C12DA3-BFA4-4C3C-B9CE-BF68D36687B6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CEFA7188-4B39-41FC-B55E-CABA1B01EAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -65,658 +65,550 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
   </si>
   <si>
     <t>10,93%</t>
@@ -1137,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEA28DD-1641-40B2-991E-80C56B59292C}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1522777E-6D33-497B-95AB-A6CEE3717315}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1255,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D4" s="7">
-        <v>11328</v>
+        <v>99534</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1270,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>9867</v>
+        <v>50802</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1285,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="N4" s="7">
-        <v>21195</v>
+        <v>150336</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1306,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>19064</v>
+        <v>140687</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1321,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I5" s="7">
-        <v>6394</v>
+        <v>66532</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1336,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="N5" s="7">
-        <v>25459</v>
+        <v>207218</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1357,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7">
-        <v>16716</v>
+        <v>93405</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1372,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>6551</v>
+        <v>29175</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1387,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="N6" s="7">
-        <v>23268</v>
+        <v>122579</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1408,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>9817</v>
+        <v>49505</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1423,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>1680</v>
+        <v>8976</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1438,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>11497</v>
+        <v>58481</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1459,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>366</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>383131</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1474,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>155484</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1489,10 +1381,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>538614</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1512,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>88206</v>
+        <v>175794</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1527,10 +1419,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I9" s="7">
-        <v>40935</v>
+        <v>110471</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1542,10 +1434,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>129140</v>
+        <v>286265</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1563,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="D10" s="7">
-        <v>121622</v>
+        <v>168290</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1578,10 +1470,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I10" s="7">
-        <v>60138</v>
+        <v>105108</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1593,10 +1485,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="N10" s="7">
-        <v>181760</v>
+        <v>273397</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1614,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D11" s="7">
-        <v>76688</v>
+        <v>138038</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1629,10 +1521,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>22623</v>
+        <v>34067</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1644,10 +1536,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="N11" s="7">
-        <v>99312</v>
+        <v>172105</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1665,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>39688</v>
+        <v>73681</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1680,10 +1572,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>7296</v>
+        <v>18080</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1695,10 +1587,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="N12" s="7">
-        <v>46983</v>
+        <v>91760</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1716,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>316</v>
+        <v>505</v>
       </c>
       <c r="D13" s="7">
-        <v>326204</v>
+        <v>555802</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1731,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>130991</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1746,10 +1638,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>441</v>
+        <v>754</v>
       </c>
       <c r="N13" s="7">
-        <v>457195</v>
+        <v>823527</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1769,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>175794</v>
+        <v>120992</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1784,10 +1676,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I14" s="7">
-        <v>110471</v>
+        <v>87314</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1799,19 +1691,19 @@
         <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="N14" s="7">
-        <v>286265</v>
+        <v>208307</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,25 +1712,25 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>168290</v>
+        <v>148403</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>105108</v>
+        <v>62299</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1850,10 +1742,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="N15" s="7">
-        <v>273398</v>
+        <v>210702</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1871,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>138038</v>
+        <v>90855</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1886,10 +1778,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>34067</v>
+        <v>50697</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1901,10 +1793,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="N16" s="7">
-        <v>172105</v>
+        <v>141552</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1922,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>73681</v>
+        <v>45197</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -1937,10 +1829,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>18080</v>
+        <v>12636</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1952,10 +1844,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>91760</v>
+        <v>57833</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1973,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>505</v>
+        <v>374</v>
       </c>
       <c r="D18" s="7">
-        <v>555802</v>
+        <v>405448</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1988,10 +1880,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>212946</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2003,10 +1895,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>754</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>823528</v>
+        <v>618394</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2026,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D19" s="7">
-        <v>120992</v>
+        <v>159903</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -2041,10 +1933,10 @@
         <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="I19" s="7">
-        <v>87314</v>
+        <v>151620</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -2056,10 +1948,10 @@
         <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="N19" s="7">
-        <v>208307</v>
+        <v>311523</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
@@ -2077,49 +1969,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="D20" s="7">
-        <v>148403</v>
+        <v>186927</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>117</v>
+      </c>
+      <c r="I20" s="7">
+        <v>124470</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>61</v>
-      </c>
-      <c r="I20" s="7">
-        <v>62299</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>309</v>
+      </c>
+      <c r="N20" s="7">
+        <v>311397</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="7">
-        <v>197</v>
-      </c>
-      <c r="N20" s="7">
-        <v>210702</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,49 +2020,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D21" s="7">
-        <v>90855</v>
+        <v>124570</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>74</v>
+      </c>
+      <c r="I21" s="7">
+        <v>78568</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>49</v>
-      </c>
-      <c r="I21" s="7">
-        <v>50697</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>202</v>
+      </c>
+      <c r="N21" s="7">
+        <v>203138</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="7">
-        <v>136</v>
-      </c>
-      <c r="N21" s="7">
-        <v>141552</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,49 +2071,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>45197</v>
+        <v>80144</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>30</v>
+      </c>
+      <c r="I22" s="7">
+        <v>30602</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>12636</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>111</v>
+      </c>
+      <c r="N22" s="7">
+        <v>110747</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M22" s="7">
-        <v>53</v>
-      </c>
-      <c r="N22" s="7">
-        <v>57833</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>374</v>
+        <v>570</v>
       </c>
       <c r="D23" s="7">
-        <v>405448</v>
+        <v>551544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2245,10 +2137,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>213</v>
+        <v>363</v>
       </c>
       <c r="I23" s="7">
-        <v>212946</v>
+        <v>385260</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2260,10 +2152,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>933</v>
       </c>
       <c r="N23" s="7">
-        <v>618394</v>
+        <v>936805</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2277,55 +2169,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>169</v>
+        <v>530</v>
       </c>
       <c r="D24" s="7">
-        <v>159903</v>
+        <v>556223</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
+        <v>381</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400208</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="7">
-        <v>142</v>
-      </c>
-      <c r="I24" s="7">
-        <v>151620</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>911</v>
+      </c>
+      <c r="N24" s="7">
+        <v>956431</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M24" s="7">
-        <v>311</v>
-      </c>
-      <c r="N24" s="7">
-        <v>311523</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>192</v>
+        <v>622</v>
       </c>
       <c r="D25" s="7">
-        <v>186927</v>
+        <v>644307</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
+        <v>344</v>
+      </c>
+      <c r="I25" s="7">
+        <v>358408</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="7">
-        <v>117</v>
-      </c>
-      <c r="I25" s="7">
-        <v>124470</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>966</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1002715</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="M25" s="7">
-        <v>309</v>
-      </c>
-      <c r="N25" s="7">
-        <v>311396</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,49 +2277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>128</v>
+        <v>429</v>
       </c>
       <c r="D26" s="7">
-        <v>124570</v>
+        <v>446868</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
+        <v>184</v>
+      </c>
+      <c r="I26" s="7">
+        <v>192506</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>74</v>
-      </c>
-      <c r="I26" s="7">
-        <v>78568</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>613</v>
+      </c>
+      <c r="N26" s="7">
+        <v>639374</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="M26" s="7">
-        <v>202</v>
-      </c>
-      <c r="N26" s="7">
-        <v>203138</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,49 +2328,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D27" s="7">
-        <v>80144</v>
+        <v>248527</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>68</v>
+      </c>
+      <c r="I27" s="7">
+        <v>70294</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="7">
-        <v>30</v>
-      </c>
-      <c r="I27" s="7">
-        <v>30602</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>302</v>
+      </c>
+      <c r="N27" s="7">
+        <v>318821</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="P27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="M27" s="7">
-        <v>111</v>
-      </c>
-      <c r="N27" s="7">
-        <v>110747</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>570</v>
+        <v>1815</v>
       </c>
       <c r="D28" s="7">
-        <v>551544</v>
+        <v>1895924</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2502,10 +2394,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>363</v>
+        <v>977</v>
       </c>
       <c r="I28" s="7">
-        <v>385260</v>
+        <v>1021416</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2517,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>933</v>
+        <v>2792</v>
       </c>
       <c r="N28" s="7">
-        <v>936804</v>
+        <v>2917341</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2533,273 +2425,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>530</v>
-      </c>
-      <c r="D29" s="7">
-        <v>556223</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>381</v>
-      </c>
-      <c r="I29" s="7">
-        <v>400208</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>911</v>
-      </c>
-      <c r="N29" s="7">
-        <v>956431</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>622</v>
-      </c>
-      <c r="D30" s="7">
-        <v>644307</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>344</v>
-      </c>
-      <c r="I30" s="7">
-        <v>358408</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>966</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1002715</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>429</v>
-      </c>
-      <c r="D31" s="7">
-        <v>446868</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>184</v>
-      </c>
-      <c r="I31" s="7">
-        <v>192506</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>613</v>
-      </c>
-      <c r="N31" s="7">
-        <v>639374</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>234</v>
-      </c>
-      <c r="D32" s="7">
-        <v>248527</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="7">
-        <v>68</v>
-      </c>
-      <c r="I32" s="7">
-        <v>70294</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="7">
-        <v>302</v>
-      </c>
-      <c r="N32" s="7">
-        <v>318821</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1815</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1895924</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>977</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1021416</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2792</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2917341</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>229</v>
+      <c r="A29" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
